--- a/demo/Chocolate/Distance/Posthoc.xlsx
+++ b/demo/Chocolate/Distance/Posthoc.xlsx
@@ -69,9 +69,6 @@
     <t>small</t>
   </si>
   <si>
-    <t>small to medium</t>
-  </si>
-  <si>
     <t>medium</t>
   </si>
   <si>
@@ -79,6 +76,9 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t>**</t>
   </si>
   <si>
     <t>***</t>
@@ -133,15 +133,15 @@
     <col min="1" max="1" width="7.7109375" customWidth="true"/>
     <col min="2" max="2" width="12" customWidth="true"/>
     <col min="3" max="3" width="12" customWidth="true"/>
-    <col min="4" max="4" width="15.7109375" customWidth="true"/>
-    <col min="5" max="5" width="15.7109375" customWidth="true"/>
+    <col min="4" max="4" width="14.7109375" customWidth="true"/>
+    <col min="5" max="5" width="14.7109375" customWidth="true"/>
     <col min="6" max="6" width="15.42578125" customWidth="true"/>
     <col min="7" max="7" width="14.42578125" customWidth="true"/>
     <col min="8" max="8" width="11.7109375" customWidth="true"/>
     <col min="9" max="9" width="4.42578125" customWidth="true"/>
     <col min="10" max="10" width="4.42578125" customWidth="true"/>
     <col min="11" max="11" width="13.7109375" customWidth="true"/>
-    <col min="12" max="12" width="16" customWidth="true"/>
+    <col min="12" max="12" width="10" customWidth="true"/>
     <col min="13" max="13" width="11.5703125" customWidth="true"/>
   </cols>
   <sheetData>
@@ -183,7 +183,7 @@
         <v>16</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2">
@@ -197,34 +197,34 @@
         <v>7</v>
       </c>
       <c r="D2" s="0">
-        <v>0.020951656078939014</v>
+        <v>0.011728814653501311</v>
       </c>
       <c r="E2" s="0">
-        <v>0.020951656078939007</v>
+        <v>0.011728814653501285</v>
       </c>
       <c r="F2" s="0">
-        <v>-0.0034544177728332848</v>
+        <v>-0.0036430571514536325</v>
       </c>
       <c r="G2" s="0">
-        <v>-0.048705819653925814</v>
+        <v>-0.051399759494407185</v>
       </c>
       <c r="H2" s="0">
-        <v>5.36498849728964</v>
+        <v>6.3993123600096151</v>
       </c>
       <c r="I2" s="0">
         <v>1</v>
       </c>
       <c r="J2" s="0">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="K2" s="0">
-        <v>0.010700764154612769</v>
+        <v>0.012891460968359612</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -238,34 +238,34 @@
         <v>7</v>
       </c>
       <c r="D3" s="0">
-        <v>0.00057577695320253509</v>
+        <v>0.0012944081158074961</v>
       </c>
       <c r="E3" s="0">
-        <v>0.00057577695320254474</v>
+        <v>0.0012944081158074994</v>
       </c>
       <c r="F3" s="0">
-        <v>0.0025564898214733844</v>
+        <v>0.0023769071387462759</v>
       </c>
       <c r="G3" s="0">
-        <v>0.039983728539244673</v>
+        <v>0.037166259800806629</v>
       </c>
       <c r="H3" s="0">
-        <v>12.007677024048517</v>
+        <v>10.471349452636249</v>
       </c>
       <c r="I3" s="0">
         <v>1</v>
       </c>
       <c r="J3" s="0">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="K3" s="0">
-        <v>0.023636802290844292</v>
+        <v>0.020922974839795976</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
@@ -279,31 +279,31 @@
         <v>7</v>
       </c>
       <c r="D4" s="0">
-        <v>2.0798692351639519e-09</v>
+        <v>7.4549944846953905e-10</v>
       </c>
       <c r="E4" s="0">
-        <v>4.1597384425884343e-09</v>
+        <v>1.4909988799161056e-09</v>
       </c>
       <c r="F4" s="0">
-        <v>-0.009465325367139954</v>
+        <v>-0.0096630214416535409</v>
       </c>
       <c r="G4" s="0">
-        <v>-0.12149050557290343</v>
+        <v>-0.12420256015361938</v>
       </c>
       <c r="H4" s="0">
-        <v>37.26700907972559</v>
+        <v>39.443393819986085</v>
       </c>
       <c r="I4" s="0">
         <v>1</v>
       </c>
       <c r="J4" s="0">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="K4" s="0">
-        <v>0.069884332698620072</v>
+        <v>0.074499737423104145</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>22</v>
